--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1920660.860874228</v>
+        <v>1914798.540839048</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8891995.982458901</v>
+        <v>8890816.023678062</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>13.30653138279174</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.0663770739052</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,10 +747,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226399</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104615017</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>115.5563505559396</v>
+        <v>7.500253464403726</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>96.88037201287045</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>366.4422849531669</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.2483168457438</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072244</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7513498150321</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>132.0937863312742</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1139,19 +1139,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>152.8687471228653</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>101.5459998857694</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>165.6158245190445</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1379,16 +1379,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>190.3263349958356</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>240.7510645887715</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>152.7095216199332</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>31.84191113716954</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1607,7 +1607,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -1616,16 +1616,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.50082464550932</v>
+        <v>217.7859874397741</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.145447509649025</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1828,7 +1828,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>139.8262500959788</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277442</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,7 +3986,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541624</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1197.635903810283</v>
+        <v>1264.735942235427</v>
       </c>
       <c r="C2" t="n">
-        <v>1197.635903810283</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="D2" t="n">
-        <v>1197.635903810283</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.635903810283</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475496</v>
+        <v>74.88432743274666</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475496</v>
+        <v>74.88432743274666</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>74.88432743274666</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123376</v>
+        <v>588.4870060424347</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760838</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596799</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238215</v>
+        <v>2061.721397026223</v>
       </c>
       <c r="U2" t="n">
-        <v>1529.016082672814</v>
+        <v>2061.721397026223</v>
       </c>
       <c r="V2" t="n">
-        <v>1197.635903810283</v>
+        <v>2061.721397026223</v>
       </c>
       <c r="W2" t="n">
-        <v>1197.635903810283</v>
+        <v>2061.721397026223</v>
       </c>
       <c r="X2" t="n">
-        <v>1197.635903810283</v>
+        <v>2061.721397026223</v>
       </c>
       <c r="Y2" t="n">
-        <v>1197.635903810283</v>
+        <v>1665.230687946824</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021429</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622351</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837154</v>
+        <v>275.4495881628891</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946031</v>
+        <v>139.0030972737768</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777349</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475496</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475496</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930682</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875479</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675969</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431042</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.0267121157928</v>
+        <v>811.4732663300601</v>
       </c>
       <c r="C4" t="n">
-        <v>200.821594181782</v>
+        <v>641.2681483960494</v>
       </c>
       <c r="D4" t="n">
-        <v>200.821594181782</v>
+        <v>485.635035298564</v>
       </c>
       <c r="E4" t="n">
-        <v>200.821594181782</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475496</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475496</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475496</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>828.2190955161664</v>
+        <v>811.4732663300601</v>
       </c>
       <c r="U4" t="n">
-        <v>828.2190955161664</v>
+        <v>811.4732663300601</v>
       </c>
       <c r="V4" t="n">
-        <v>828.2190955161664</v>
+        <v>811.4732663300601</v>
       </c>
       <c r="W4" t="n">
-        <v>828.2190955161664</v>
+        <v>811.4732663300601</v>
       </c>
       <c r="X4" t="n">
-        <v>594.1387732991494</v>
+        <v>811.4732663300601</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.0267121157928</v>
+        <v>811.4732663300601</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>960.8325843773948</v>
+        <v>919.0753014956633</v>
       </c>
       <c r="C5" t="n">
-        <v>960.8325843773948</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="D5" t="n">
-        <v>960.8325843773948</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="E5" t="n">
-        <v>558.2490594939393</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F5" t="n">
-        <v>141.354621023917</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475496</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475496</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>170.1312398443277</v>
+        <v>114.597087986688</v>
       </c>
       <c r="L5" t="n">
-        <v>663.4515315628565</v>
+        <v>607.9173797052168</v>
       </c>
       <c r="M5" t="n">
-        <v>1201.710316572949</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523737</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U5" t="n">
-        <v>1746.775898523737</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V5" t="n">
-        <v>1746.775898523737</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W5" t="n">
-        <v>1746.775898523737</v>
+        <v>1705.018615642005</v>
       </c>
       <c r="X5" t="n">
-        <v>1357.323293456794</v>
+        <v>1315.566010575062</v>
       </c>
       <c r="Y5" t="n">
-        <v>960.8325843773948</v>
+        <v>919.0753014956633</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692.2074120948781</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284337</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>407.9705203262574</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591876</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182857</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413231</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784298</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917585</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675969</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431042</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.974210433261</v>
+        <v>809.5222022966038</v>
       </c>
       <c r="C7" t="n">
-        <v>198.974210433261</v>
+        <v>809.5222022966038</v>
       </c>
       <c r="D7" t="n">
-        <v>198.974210433261</v>
+        <v>653.8890891991185</v>
       </c>
       <c r="E7" t="n">
-        <v>198.974210433261</v>
+        <v>498.330277058321</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>498.330277058321</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475496</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2625513415792</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2625513415792</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>618.2625513415792</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>618.2625513415792</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>618.2625513415792</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>384.1822291245622</v>
+        <v>809.5222022966038</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.1822291245622</v>
+        <v>809.5222022966038</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2161.142036303753</v>
+        <v>1140.655979072374</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.966534806683</v>
+        <v>747.4804775753041</v>
       </c>
       <c r="D8" t="n">
-        <v>1382.525406023351</v>
+        <v>362.0393487919719</v>
       </c>
       <c r="E8" t="n">
-        <v>979.9418811398955</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>563.0474426698732</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>149.8846871578764</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>149.8846871578764</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.142036303753</v>
+        <v>1541.150724783771</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>781.4712810076976</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>558.3592198243409</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1286.72012241885</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="C11" t="n">
-        <v>965.3408960679737</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>651.6960424308354</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>320.9087926935736</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>320.9087926935736</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G11" t="n">
-        <v>320.9087926935736</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723526</v>
+        <v>2616.35188447462</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838007</v>
+        <v>2616.35188447462</v>
       </c>
       <c r="X11" t="n">
-        <v>1940.113026917257</v>
+        <v>2298.69555455387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1615.418592984052</v>
+        <v>1974.001120620665</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>558.6374311877009</v>
+        <v>487.6503970551457</v>
       </c>
       <c r="C13" t="n">
-        <v>460.2285883998841</v>
+        <v>389.2415542673289</v>
       </c>
       <c r="D13" t="n">
-        <v>376.3917504485927</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>995.4333001961134</v>
       </c>
       <c r="V13" t="n">
-        <v>1067.062634295801</v>
+        <v>801.2502301631315</v>
       </c>
       <c r="W13" t="n">
-        <v>855.5285073731727</v>
+        <v>801.2502301631315</v>
       </c>
       <c r="X13" t="n">
-        <v>823.3649607699712</v>
+        <v>638.9661830923085</v>
       </c>
       <c r="Y13" t="n">
-        <v>672.0491747328083</v>
+        <v>487.6503970551457</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1370.477011451001</v>
+        <v>1369.296937795194</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.477011451001</v>
+        <v>1047.917711444318</v>
       </c>
       <c r="D14" t="n">
-        <v>1056.832157813862</v>
+        <v>734.2728578071801</v>
       </c>
       <c r="E14" t="n">
-        <v>726.0449080766007</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527723</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527723</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="V14" t="n">
-        <v>2640.729005755677</v>
+        <v>2639.54893209987</v>
       </c>
       <c r="W14" t="n">
-        <v>2341.526245870158</v>
+        <v>2340.346172214352</v>
       </c>
       <c r="X14" t="n">
-        <v>2023.869915949409</v>
+        <v>2022.689842293602</v>
       </c>
       <c r="Y14" t="n">
-        <v>1699.175482016204</v>
+        <v>1697.995408360397</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>306.7345522742324</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="C16" t="n">
-        <v>306.7345522742324</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="D16" t="n">
-        <v>306.7345522742324</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="E16" t="n">
-        <v>306.7345522742324</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="F16" t="n">
         <v>303.5573325675165</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457737</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127918</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901633</v>
+        <v>530.3256286689342</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193399</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.1462958193399</v>
+        <v>389.0869922083496</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,13 +5540,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573995</v>
@@ -5555,10 +5555,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5911,22 +5911,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>683.142663665514</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829235</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6069,13 +6069,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6139,34 +6139,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>755.8323718938487</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884792</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1981.256287116105</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2602.11893248314</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3135.209895105042</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,7 +6312,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796863</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,22 +6464,22 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6601,16 +6601,16 @@
         <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.3081217701</v>
+        <v>2658.656341426377</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.34117404257</v>
+        <v>3303.341514273831</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431911</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>261.0422972872699</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>501.1958531658789</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465405</v>
+        <v>799.1395520791259</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>982.3291861103351</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,10 +6959,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -7087,7 +7087,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,10 +7105,10 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7339,10 +7339,10 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
         <v>969.3241577214669</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960415</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,13 +7813,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P46" t="n">
         <v>1094.77996610623</v>
@@ -7831,25 +7831,25 @@
         <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>151.3981012518494</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
-        <v>540.5248372584006</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>588.5633660719488</v>
+        <v>465.388239943996</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,25 +8216,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9731309060785</v>
+        <v>216.8905660381763</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>345.9717522611522</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>554.0405189317972</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>560.2818744604613</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8769,7 +8769,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8781,10 +8781,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>125.4991521252098</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9717,16 +9717,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>663.2434089132776</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>59.43757253860669</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>26.85636422001332</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>58.79656982585288</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>128.8192954629452</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>233.1066041632755</v>
+        <v>49.82144136901073</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>81.52891553477581</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>20.83495650413599</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>779134.5511219545</v>
+        <v>778533.0035081941</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>779134.5511219545</v>
+        <v>778533.0035081941</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695116.4843667954</v>
+        <v>695116.4843667956</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695116.4843667954</v>
+        <v>695116.4843667956</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783203.7339764116</v>
+        <v>783203.7339764115</v>
       </c>
     </row>
     <row r="8">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>504930.098661399</v>
+      </c>
+      <c r="C2" t="n">
         <v>504930.0986613991</v>
-      </c>
-      <c r="C2" t="n">
-        <v>504930.098661399</v>
       </c>
       <c r="D2" t="n">
         <v>504930.0986613991</v>
       </c>
       <c r="E2" t="n">
-        <v>446205.2655883213</v>
+        <v>446205.2655883212</v>
       </c>
       <c r="F2" t="n">
-        <v>446205.2655883213</v>
+        <v>446205.2655883212</v>
       </c>
       <c r="G2" t="n">
-        <v>504930.098661399</v>
+        <v>504930.0986613982</v>
       </c>
       <c r="H2" t="n">
-        <v>504930.0986613984</v>
+        <v>504930.0986613983</v>
       </c>
       <c r="I2" t="n">
         <v>504930.0986613983</v>
       </c>
       <c r="J2" t="n">
+        <v>504930.0986613992</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504930.0986613989</v>
+      </c>
+      <c r="L2" t="n">
         <v>504930.0986613993</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504930.0986613993</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504930.0986613992</v>
       </c>
       <c r="M2" t="n">
         <v>504930.0986613984</v>
@@ -26350,10 +26350,10 @@
         <v>504930.0986613982</v>
       </c>
       <c r="O2" t="n">
-        <v>504930.0986613979</v>
+        <v>504930.0986613983</v>
       </c>
       <c r="P2" t="n">
-        <v>504930.098661398</v>
+        <v>504930.0986613981</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062197</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.2417753968</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962294</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805104</v>
       </c>
       <c r="F4" t="n">
         <v>99893.08150805104</v>
@@ -26439,13 +26439,13 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26457,7 +26457,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996331</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,19 +26488,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67095.34287536278</v>
+        <v>70845.24107589718</v>
       </c>
       <c r="C6" t="n">
-        <v>249300.2911672185</v>
+        <v>244703.8981099523</v>
       </c>
       <c r="D6" t="n">
-        <v>243284.4895094452</v>
+        <v>235548.2002860537</v>
       </c>
       <c r="E6" t="n">
-        <v>181003.6029063851</v>
+        <v>180793.8713596955</v>
       </c>
       <c r="F6" t="n">
-        <v>293126.1643804297</v>
+        <v>292916.4328337401</v>
       </c>
       <c r="G6" t="n">
-        <v>251683.0058095641</v>
+        <v>251683.0058095634</v>
       </c>
       <c r="H6" t="n">
-        <v>299108.3313462455</v>
+        <v>299108.3313462454</v>
       </c>
       <c r="I6" t="n">
-        <v>299108.3313462455</v>
+        <v>299108.3313462454</v>
       </c>
       <c r="J6" t="n">
-        <v>86066.41374896084</v>
+        <v>92582.6989035341</v>
       </c>
       <c r="K6" t="n">
-        <v>292868.5629434634</v>
+        <v>292868.5629434631</v>
       </c>
       <c r="L6" t="n">
-        <v>237685.9740088421</v>
+        <v>233637.13679837</v>
       </c>
       <c r="M6" t="n">
-        <v>256907.5018866226</v>
+        <v>255855.8068754344</v>
       </c>
       <c r="N6" t="n">
+        <v>299108.3313462454</v>
+      </c>
+      <c r="O6" t="n">
+        <v>271340.6373034742</v>
+      </c>
+      <c r="P6" t="n">
         <v>299108.3313462453</v>
-      </c>
-      <c r="O6" t="n">
-        <v>271340.6373034738</v>
-      </c>
-      <c r="P6" t="n">
-        <v>299108.3313462452</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,19 +26808,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="J4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="L4" t="n">
+        <v>844.4391950293135</v>
+      </c>
+      <c r="M4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="J4" t="n">
-        <v>917.0607368443784</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
-      <c r="L4" t="n">
-        <v>869.3443530095202</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.070302219246</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287435</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,16 +27427,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>207.9590650333857</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>10.61936412961154</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343553</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270403</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>117.8055107575086</v>
+        <v>225.8616078490445</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>312.1507559440064</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27676,7 +27676,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0.8467597282285055</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.03005425080789</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758562</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0365731642439755</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>99.64573266357249</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>245.6889425117556</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>35.40774585269038</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>66.12369447580221</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,16 +28983,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.7104901066881</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>86.65052755599521</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29536,13 +29536,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29554,7 +29554,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566512</v>
+        <v>81.10808140893175</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031237</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254032</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30177,13 +30177,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>5.636002634529035</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30639,16 +30639,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.636002634529603</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30885,16 +30885,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5.636002634530001</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.63600263452949</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33.71826330950326</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
-        <v>390.9609998343042</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>496.176244022637</v>
+        <v>373.0011178946841</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>127.9147277268411</v>
+        <v>73.83216285893896</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>255.911405404234</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>468.6684060776306</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>467.8947524111493</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35489,7 +35489,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35501,10 +35501,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>32.81159323632088</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094871</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094876</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>570.8562868639657</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.63600263452903</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>449.2589679877748</v>
       </c>
       <c r="L26" t="n">
-        <v>528.575562627224</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36850,7 +36850,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114514</v>
+        <v>525.5925267547181</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273768</v>
+        <v>75.16693519537675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791188</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>242.5793493723324</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496192</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37473,13 +37473,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>169.9842521716079</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37792,7 +37792,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565496</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38181,16 +38181,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087322</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716083</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
